--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3975.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3975.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241551569658359</v>
+        <v>1.670520067214966</v>
       </c>
       <c r="B1">
-        <v>2.583361234532733</v>
+        <v>1.413123250007629</v>
       </c>
       <c r="C1">
-        <v>5.434210445107397</v>
+        <v>1.807768225669861</v>
       </c>
       <c r="D1">
-        <v>3.102223136760812</v>
+        <v>2.7420814037323</v>
       </c>
       <c r="E1">
-        <v>1.363256570285129</v>
+        <v>5.137547492980957</v>
       </c>
     </row>
   </sheetData>
